--- a/Docs/simulation_record.xlsx
+++ b/Docs/simulation_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Gkeyll_IAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuzhuo/Desktop/Gkeyll_IAT/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FAAA37-F057-457B-B31A-A1506203F639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CEC193-A005-6F4F-8DDC-493257DD07C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13230" windowHeight="7980" xr2:uid="{6114E2D3-7950-4F30-8E3B-63CABD540727}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{6114E2D3-7950-4F30-8E3B-63CABD540727}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
   <si>
     <t>directory</t>
   </si>
@@ -307,18 +307,6 @@
   </si>
   <si>
     <t>Ext E , extremely small E, E1</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> E2</t>
-  </si>
-  <si>
-    <t>IAT/extE/E2</t>
-  </si>
-  <si>
-    <t>IAT_E2.lua</t>
   </si>
 </sst>
 </file>
@@ -713,30 +701,30 @@
   <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="44" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="60.5703125" customWidth="1"/>
-    <col min="16" max="16" width="39.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="60.5" customWidth="1"/>
+    <col min="16" max="16" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -786,7 +774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -830,7 +818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -874,7 +862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -918,7 +906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -957,7 +945,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="2">
         <v>44301</v>
       </c>
@@ -980,7 +968,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1027,7 +1015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1074,7 +1062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1118,7 +1106,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="10">
         <v>44312</v>
       </c>
@@ -1138,7 +1126,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1185,7 +1173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -1233,7 +1221,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1279,7 +1267,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1323,7 +1311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1364,7 +1352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1408,7 +1396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -1452,7 +1440,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="9" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -1499,7 +1487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -1540,7 +1528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -1554,7 +1542,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -1574,32 +1562,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="22" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1607,76 +1578,59 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44363</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
